--- a/linreg/rifreg2bw_coefs_1_blk1.xlsx
+++ b/linreg/rifreg2bw_coefs_1_blk1.xlsx
@@ -153,13 +153,13 @@
         <v>0.073539279294098994</v>
       </c>
       <c r="C2">
-        <v>0.0053888991373832358</v>
+        <v>0.0053929171847225616</v>
       </c>
       <c r="D2">
-        <v>0.062976799496964483</v>
+        <v>0.062968923947104738</v>
       </c>
       <c r="E2">
-        <v>0.084101759091233505</v>
+        <v>0.08410963464109325</v>
       </c>
     </row>
     <row r="3">
@@ -170,13 +170,13 @@
         <v>0.044063289175982977</v>
       </c>
       <c r="C3">
-        <v>0.0034207411444031532</v>
+        <v>0.0032024662792370711</v>
       </c>
       <c r="D3">
-        <v>0.037358530314635915</v>
+        <v>0.037786355828070654</v>
       </c>
       <c r="E3">
-        <v>0.050768048037330038</v>
+        <v>0.050340222523895299</v>
       </c>
     </row>
     <row r="4">
@@ -187,13 +187,13 @@
         <v>0.20148625668823394</v>
       </c>
       <c r="C4">
-        <v>0.0083459559310485251</v>
+        <v>0.0097579531301865124</v>
       </c>
       <c r="D4">
-        <v>0.18512781525852828</v>
+        <v>0.18236023852174274</v>
       </c>
       <c r="E4">
-        <v>0.21784469811793961</v>
+        <v>0.22061227485472515</v>
       </c>
     </row>
     <row r="5">
@@ -204,13 +204,13 @@
         <v>0.095292083323606225</v>
       </c>
       <c r="C5">
-        <v>0.0050230222470146356</v>
+        <v>0.0052340502429781442</v>
       </c>
       <c r="D5">
-        <v>0.08544680374829626</v>
+        <v>0.085033182323522971</v>
       </c>
       <c r="E5">
-        <v>0.10513736289891619</v>
+        <v>0.10555098432368948</v>
       </c>
     </row>
     <row r="6">
@@ -221,13 +221,13 @@
         <v>0.25528166303238881</v>
       </c>
       <c r="C6">
-        <v>0.0080586662181889833</v>
+        <v>0.010792808446874533</v>
       </c>
       <c r="D6">
-        <v>0.23948632210069637</v>
+        <v>0.23412728283929227</v>
       </c>
       <c r="E6">
-        <v>0.27107700396408124</v>
+        <v>0.27643604322548537</v>
       </c>
     </row>
     <row r="7">
@@ -238,13 +238,13 @@
         <v>0.16221184570205435</v>
       </c>
       <c r="C7">
-        <v>0.0070978612175674072</v>
+        <v>0.0073001574389876499</v>
       </c>
       <c r="D7">
-        <v>0.14829981731810013</v>
+        <v>0.14790331044256422</v>
       </c>
       <c r="E7">
-        <v>0.17612387408600857</v>
+        <v>0.17652038096154449</v>
       </c>
     </row>
     <row r="8">
@@ -255,13 +255,13 @@
         <v>0.35041975082771887</v>
       </c>
       <c r="C8">
-        <v>0.0098532824234939687</v>
+        <v>0.01171484875585397</v>
       </c>
       <c r="D8">
-        <v>0.33110688304519942</v>
+        <v>0.32745813099486387</v>
       </c>
       <c r="E8">
-        <v>0.36973261861023832</v>
+        <v>0.37338137066057386</v>
       </c>
     </row>
     <row r="9">
@@ -272,13 +272,13 @@
         <v>0.20010397884348205</v>
       </c>
       <c r="C9">
-        <v>0.0073419050641322543</v>
+        <v>0.0080009668851266282</v>
       </c>
       <c r="D9">
-        <v>0.18571361694239222</v>
+        <v>0.18442183530854439</v>
       </c>
       <c r="E9">
-        <v>0.21449434074457188</v>
+        <v>0.21578612237841971</v>
       </c>
     </row>
     <row r="10">
@@ -289,13 +289,13 @@
         <v>0.38239208847850764</v>
       </c>
       <c r="C10">
-        <v>0.010364526178416598</v>
+        <v>0.011947485636022496</v>
       </c>
       <c r="D10">
-        <v>0.36207716040591498</v>
+        <v>0.35897449010825483</v>
       </c>
       <c r="E10">
-        <v>0.40270701655110031</v>
+        <v>0.40580968684876045</v>
       </c>
     </row>
     <row r="11">
@@ -306,13 +306,13 @@
         <v>0.24022013052496727</v>
       </c>
       <c r="C11">
-        <v>0.0083889148356528411</v>
+        <v>0.0089881976243184943</v>
       </c>
       <c r="D11">
-        <v>0.22377759696072622</v>
+        <v>0.22260298408645685</v>
       </c>
       <c r="E11">
-        <v>0.25666266408920835</v>
+        <v>0.25783727696347769</v>
       </c>
     </row>
     <row r="12">
@@ -323,13 +323,13 @@
         <v>0.39193739855026744</v>
       </c>
       <c r="C12">
-        <v>0.010964332980724184</v>
+        <v>0.012684275237936939</v>
       </c>
       <c r="D12">
-        <v>0.37044682271176871</v>
+        <v>0.36707566009007059</v>
       </c>
       <c r="E12">
-        <v>0.41342797438876616</v>
+        <v>0.41679913701046428</v>
       </c>
     </row>
     <row r="13">
@@ -340,13 +340,13 @@
         <v>0.25892108753278803</v>
       </c>
       <c r="C13">
-        <v>0.0091547897297581705</v>
+        <v>0.010423061283285079</v>
       </c>
       <c r="D13">
-        <v>0.24097741539472137</v>
+        <v>0.23849156376838099</v>
       </c>
       <c r="E13">
-        <v>0.27686475967085472</v>
+        <v>0.27935061129719507</v>
       </c>
     </row>
     <row r="14">
@@ -357,13 +357,13 @@
         <v>0.30770661034477209</v>
       </c>
       <c r="C14">
-        <v>0.010303131565004569</v>
+        <v>0.012225684717779425</v>
       </c>
       <c r="D14">
-        <v>0.28751201842011709</v>
+        <v>0.28374372951408977</v>
       </c>
       <c r="E14">
-        <v>0.32790120226942709</v>
+        <v>0.33166949117545441</v>
       </c>
     </row>
     <row r="15">
@@ -374,13 +374,13 @@
         <v>0.25824249687484963</v>
       </c>
       <c r="C15">
-        <v>0.010136600483972856</v>
+        <v>0.010803144130047612</v>
       </c>
       <c r="D15">
-        <v>0.23837444517206283</v>
+        <v>0.23706799892873737</v>
       </c>
       <c r="E15">
-        <v>0.2781105485776364</v>
+        <v>0.27941699482096188</v>
       </c>
     </row>
     <row r="16">
@@ -391,13 +391,13 @@
         <v>0.21997735104148317</v>
       </c>
       <c r="C16">
-        <v>0.010140080263893408</v>
+        <v>0.010862189644393845</v>
       </c>
       <c r="D16">
-        <v>0.20010234685264902</v>
+        <v>0.19868698064363127</v>
       </c>
       <c r="E16">
-        <v>0.23985235523031731</v>
+        <v>0.24126772143933506</v>
       </c>
     </row>
     <row r="17">
@@ -408,13 +408,13 @@
         <v>0.23557367726702397</v>
       </c>
       <c r="C17">
-        <v>0.011659060998482282</v>
+        <v>0.013323199108590703</v>
       </c>
       <c r="D17">
-        <v>0.21272155568148399</v>
+        <v>0.20945979331208917</v>
       </c>
       <c r="E17">
-        <v>0.25842579885256395</v>
+        <v>0.26168756122195874</v>
       </c>
     </row>
     <row r="18">
@@ -425,13 +425,13 @@
         <v>0.084360284541250816</v>
       </c>
       <c r="C18">
-        <v>0.01091649434440433</v>
+        <v>0.011598457333979141</v>
       </c>
       <c r="D18">
-        <v>0.06296347453817952</v>
+        <v>0.061626797024620567</v>
       </c>
       <c r="E18">
-        <v>0.10575709454432211</v>
+        <v>0.10709377205788106</v>
       </c>
     </row>
     <row r="19">
@@ -442,13 +442,13 @@
         <v>0.1460757738110128</v>
       </c>
       <c r="C19">
-        <v>0.012742797488915363</v>
+        <v>0.014603580281820072</v>
       </c>
       <c r="D19">
-        <v>0.12109949505284229</v>
+        <v>0.11745230299910191</v>
       </c>
       <c r="E19">
-        <v>0.17105205256918332</v>
+        <v>0.17469924462292372</v>
       </c>
     </row>
   </sheetData>
